--- a/data/state_election_results/minnesota_president.xlsx
+++ b/data/state_election_results/minnesota_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF25BA-91D0-7144-BB28-A221C5C17717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1442E91-1730-FF44-806A-AA9F3EF7214F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="500" windowWidth="14160" windowHeight="19140" xr2:uid="{67799113-AC9B-0943-BB5B-C661A8AF6705}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Yellow Medicine</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,32 +677,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41A4FCF-4BE1-F149-847F-9034AA7C8673}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A88"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>3607</v>
@@ -719,7 +717,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>100890</v>
@@ -736,7 +734,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>6589</v>
@@ -753,7 +751,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>11426</v>
@@ -770,7 +768,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>7281</v>
@@ -787,7 +785,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1053</v>
@@ -804,7 +802,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>18330</v>
@@ -821,7 +819,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>4753</v>
@@ -838,7 +836,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>10098</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>30773</v>
@@ -872,7 +870,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>6342</v>
@@ -889,7 +887,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>2226</v>
@@ -906,7 +904,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>11801</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>16357</v>
@@ -940,7 +938,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1260</v>
@@ -957,7 +955,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>2496</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>1834</v>
@@ -991,7 +989,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>13726</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>146153</v>
@@ -1025,7 +1023,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>4078</v>
@@ -1042,7 +1040,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>7868</v>
@@ -1059,7 +1057,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>2531</v>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>4551</v>
@@ -1093,7 +1091,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>6889</v>
@@ -1110,7 +1108,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>11805</v>
@@ -1127,7 +1125,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>1300</v>
@@ -1144,7 +1142,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>532608</v>
@@ -1161,7 +1159,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>4853</v>
@@ -1178,7 +1176,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>4462</v>
@@ -1195,7 +1193,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>7138</v>
@@ -1212,7 +1210,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>10787</v>
@@ -1229,7 +1227,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>1745</v>
@@ -1246,7 +1244,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>2774</v>
@@ -1263,7 +1261,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>8440</v>
@@ -1280,7 +1278,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>1006</v>
@@ -1297,7 +1295,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>2659</v>
@@ -1314,7 +1312,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>1445</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>3647</v>
@@ -1348,7 +1346,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>671</v>
@@ -1365,7 +1363,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>5671</v>
@@ -1382,7 +1380,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>937</v>
@@ -1399,7 +1397,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>4630</v>
@@ -1416,7 +1414,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>6413</v>
@@ -1433,7 +1431,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>1112</v>
@@ -1450,7 +1448,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>1295</v>
@@ -1467,7 +1465,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>3305</v>
@@ -1484,7 +1482,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>3867</v>
@@ -1501,7 +1499,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>4403</v>
@@ -1518,7 +1516,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>4367</v>
@@ -1535,7 +1533,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>8899</v>
@@ -1552,7 +1550,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>1449</v>
@@ -1569,7 +1567,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>9622</v>
@@ -1586,7 +1584,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>2933</v>
@@ -1603,7 +1601,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>1404</v>
@@ -1620,7 +1618,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>49492</v>
@@ -1637,7 +1635,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>11958</v>
@@ -1654,7 +1652,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>2568</v>
@@ -1671,7 +1669,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>5419</v>
@@ -1688,7 +1686,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>1306</v>
@@ -1705,7 +1703,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>5439</v>
@@ -1722,7 +1720,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>2477</v>
@@ -1739,7 +1737,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>211397</v>
@@ -1756,7 +1754,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>691</v>
@@ -1773,7 +1771,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>2355</v>
@@ -1790,7 +1788,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>2496</v>
@@ -1807,7 +1805,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>17402</v>
@@ -1824,7 +1822,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>1556</v>
@@ -1841,7 +1839,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>2188</v>
@@ -1858,7 +1856,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>67708</v>
@@ -1875,7 +1873,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>40037</v>
@@ -1892,7 +1890,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>18064</v>
@@ -1909,7 +1907,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>2417</v>
@@ -1926,7 +1924,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>31881</v>
@@ -1943,7 +1941,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>7917</v>
@@ -1960,7 +1958,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>1921</v>
@@ -1977,7 +1975,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>1784</v>
@@ -1994,7 +1992,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>3286</v>
@@ -2011,7 +2009,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>661</v>
@@ -2028,7 +2026,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>4696</v>
@@ -2045,7 +2043,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>2023</v>
@@ -2062,7 +2060,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>3496</v>
@@ -2079,7 +2077,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>89164</v>
@@ -2096,7 +2094,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>1987</v>
@@ -2113,7 +2111,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>1026</v>
@@ -2130,7 +2128,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>13333</v>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>28427</v>
@@ -2164,7 +2162,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>1687</v>
